--- a/data/case1/15/Plm2_3.xlsx
+++ b/data/case1/15/Plm2_3.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.35904787341820565</v>
+        <v>-0.41936842089428694</v>
       </c>
       <c r="B1" s="0">
-        <v>0.35815390917255741</v>
+        <v>0.41798362865547745</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.27305275718091693</v>
+        <v>-0.2650987525301165</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27029648391399164</v>
+        <v>0.26212040280992532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.16734673218232388</v>
+        <v>-0.15916968011095989</v>
       </c>
       <c r="B3" s="0">
-        <v>0.16657899547923449</v>
+        <v>0.15829430801895583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.154578995706661</v>
+        <v>-0.1462943082579109</v>
       </c>
       <c r="B4" s="0">
-        <v>0.1539000898131313</v>
+        <v>0.14551444810065917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14790009071634813</v>
+        <v>-0.139514449049849</v>
       </c>
       <c r="B5" s="0">
-        <v>0.14655059060572473</v>
+        <v>0.13795419929010944</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.045610602106123554</v>
+        <v>-0.063115518912184587</v>
       </c>
       <c r="B6" s="0">
-        <v>0.045562587376810626</v>
+        <v>0.06305247865050978</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.053686442301504655</v>
+        <v>-0.043052479793987075</v>
       </c>
       <c r="B7" s="0">
-        <v>0.053478699544681874</v>
+        <v>0.042941925397210312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.033478700613295942</v>
+        <v>-0.022941926546631741</v>
       </c>
       <c r="B8" s="0">
-        <v>0.033234492081856359</v>
+        <v>0.022895347146469902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.027234493021297546</v>
+        <v>-0.016895348135440358</v>
       </c>
       <c r="B9" s="0">
-        <v>0.026998140540396953</v>
+        <v>0.01686824108190077</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.010137472361776645</v>
+        <v>-0.01086824207406778</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.010137363871869809</v>
+        <v>0.010870360183055539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.014637362942092835</v>
+        <v>-0.0063703611574865704</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.014648302588391005</v>
+        <v>0.0063712008737297765</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0016829354244007888</v>
+        <v>-0.00037120186580397174</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0017096876701674368</v>
+        <v>0.00037057439832377526</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0077096867269084157</v>
+        <v>0.005629424610012812</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0077174607820955643</v>
+        <v>-0.005630289060722049</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027082763805347021</v>
+        <v>0.017630287999029548</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027051566142394456</v>
+        <v>-0.01764531340005604</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021051567087415179</v>
+        <v>0.023645312411183284</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021027033432264197</v>
+        <v>-0.023678422094265628</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027034379543114</v>
+        <v>0.029678421109205821</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004097545187278</v>
+        <v>-0.02977001084709352</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090040984955050973</v>
+        <v>0.0068708875109848577</v>
       </c>
       <c r="B17" s="0">
-        <v>0.008999999020254279</v>
+        <v>-0.0068734048155345562</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.075101152888880307</v>
+        <v>-0.14288487707075248</v>
       </c>
       <c r="B18" s="0">
-        <v>0.075028358001105744</v>
+        <v>0.14259194772833439</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.066028358890237726</v>
+        <v>-0.082554301402995911</v>
       </c>
       <c r="B19" s="0">
-        <v>0.06546833263841112</v>
+        <v>0.081633016542719261</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013525492799332</v>
+        <v>-0.072633017509292408</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004335966054441</v>
+        <v>0.072431356763257959</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.00900433687496216</v>
+        <v>-0.0090042920858919295</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999990905891281</v>
+        <v>0.0089999990265030583</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093949752644460816</v>
+        <v>-0.093950723661045288</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093636415362105652</v>
+        <v>0.093637358377922197</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.08463641628146501</v>
+        <v>-0.084637359348700869</v>
       </c>
       <c r="B23" s="0">
-        <v>0.08412706636924927</v>
+        <v>0.084127135626684613</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127067617275138</v>
+        <v>-0.042127136999868142</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998746298672</v>
+        <v>0.04199999861921544</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094939989425675719</v>
+        <v>-0.068838681353863507</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094696838816858531</v>
+        <v>0.068728756472030028</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.08869683974459619</v>
+        <v>-0.062728757448137884</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088381669727205292</v>
+        <v>0.062591003063797501</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082381670659144479</v>
+        <v>-0.056591004043568205</v>
       </c>
       <c r="B27" s="0">
-        <v>0.08129605422128261</v>
+        <v>0.056128353099700767</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075296055170708698</v>
+        <v>-0.075288155922429212</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074544056711026485</v>
+        <v>0.074539996513585116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062544057729898128</v>
+        <v>-0.062539997591237295</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062172077817612248</v>
+        <v>0.062170435911552246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042172078919202605</v>
+        <v>-0.042170437090333301</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019292312474033</v>
+        <v>0.042018519006794541</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019293373484743</v>
+        <v>-0.027018520136174118</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000546136386916</v>
+        <v>0.027000423459263345</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060005472563755546</v>
+        <v>-0.0060004246605851463</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999990247465718</v>
+        <v>0.0059999989752439475</v>
       </c>
     </row>
   </sheetData>
